--- a/Nouveau Feuille de calcul Microsoft Excel.xlsx
+++ b/Nouveau Feuille de calcul Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Unité</t>
   </si>
@@ -73,13 +73,10 @@
     <t>Rallonge electrique - 15m</t>
   </si>
   <si>
-    <t>Rallonge electrique - 60m</t>
-  </si>
-  <si>
-    <t>Disjoncteur 32A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Câbles </t>
+  </si>
+  <si>
+    <t>Disjoncteur 16A x 5</t>
   </si>
 </sst>
 </file>
@@ -167,9 +164,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -488,7 +486,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,382 +508,365 @@
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="8">
-        <v>630</v>
-      </c>
-      <c r="H2" s="8">
-        <v>32</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1.76</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f>B3*C3</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="8">
-        <f>G2-SUM(H2:H17)</f>
-        <v>102</v>
-      </c>
-      <c r="H3" s="9">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>44</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>23.4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f>B4*C4</f>
         <v>1029.5999999999999</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>124</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>17.02</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f t="shared" ref="D5:D10" si="0">B5*C5</f>
         <v>2110.48</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8">
-        <f>28*16</f>
-        <v>448</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>100</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>21.17</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>2117</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>120</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>25.76</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>3091.2000000000003</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>70</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>30.19</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>2113.3000000000002</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>42.96</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>85.92</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>120.96</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>120.96</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1">
         <f>D4+D5+D6+D7+D8+D9+D10</f>
         <v>10668.460000000001</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>3216</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <f>C15*B15</f>
         <v>3216</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="C17" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="D17" s="3">
         <f t="shared" ref="D16:D24" si="1">C17*B17</f>
-        <v>0</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3">
+        <v>33.99</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>883.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
         <v>20</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
+      <c r="C19" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2">
+        <v>499.79999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
         <v>20</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
+      <c r="C20" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="D20" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>125</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12.99</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21*B21</f>
+        <v>1623.75</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2">
-        <v>125</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3">
         <f>C22*B22</f>
-        <v>0</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <f>C23*B23</f>
-        <v>696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <f>SUM(D15:D23)</f>
-        <v>3912</v>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1">
+        <f>SUM(D15:D22)</f>
+        <v>8611.2900000000009</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -893,9 +874,14 @@
     <hyperlink ref="A9" r:id="rId2"/>
     <hyperlink ref="A4:A8" r:id="rId3" display="Câbles ethernet S/FTP - 8m"/>
     <hyperlink ref="A3" r:id="rId4" display="Câbles ethernet S/FTP - 8m"/>
-    <hyperlink ref="A23" r:id="rId5"/>
+    <hyperlink ref="A17" r:id="rId5"/>
+    <hyperlink ref="A18" r:id="rId6"/>
+    <hyperlink ref="A19" r:id="rId7" location="desc"/>
+    <hyperlink ref="A20" r:id="rId8"/>
+    <hyperlink ref="A22" r:id="rId9"/>
+    <hyperlink ref="A21" r:id="rId10" location="mpos=2|cd"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>